--- a/Skill.xlsx
+++ b/Skill.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DataID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +57,26 @@
   </si>
   <si>
     <t>Jumpchange_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 이속증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 높이 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,18 +402,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,10 +424,16 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>350</v>
       </c>
@@ -417,11 +443,14 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>400</v>
       </c>
@@ -431,11 +460,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>401</v>
       </c>
@@ -445,7 +477,10 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
         <v>200</v>
       </c>
     </row>

--- a/Skill.xlsx
+++ b/Skill.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>DataID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,31 +48,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Jumpchange_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 이속증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이속 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프 높이 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Speedchange_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jumpchange_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보스의 이속증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이속 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프 높이 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -413,75 +417,96 @@
     <col min="3" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>350</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
+      <c r="G2">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>400</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>401</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>200</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
